--- a/Inventory2020_05.xlsx
+++ b/Inventory2020_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E207FA-623D-4661-B927-FA574C89C768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096FEB7-E1D1-4271-88FA-A5A1185CB108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="219">
   <si>
     <t>Sales Rep</t>
   </si>
@@ -466,9 +466,6 @@
     <t>$$</t>
   </si>
   <si>
-    <t>Tyler</t>
-  </si>
-  <si>
     <t>Hassan</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
   </si>
   <si>
     <t>Total pending</t>
-  </si>
-  <si>
-    <t>Mido</t>
   </si>
   <si>
     <t>low crazy hearts</t>
@@ -690,6 +684,15 @@
   <si>
     <t>white black heart xl</t>
   </si>
+  <si>
+    <t>tyler</t>
+  </si>
+  <si>
+    <t>Joshie</t>
+  </si>
+  <si>
+    <t>diff seller</t>
+  </si>
 </sst>
 </file>
 
@@ -878,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -958,6 +961,9 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1620,8 +1626,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Sold" displayName="Sold" ref="A1:F52" totalsRowShown="0">
-  <autoFilter ref="A1:F52" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Sold" displayName="Sold" ref="A1:F69" totalsRowShown="0">
+  <autoFilter ref="A1:F69" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Item No."/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="27">
@@ -1961,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,15 +2012,15 @@
       </c>
       <c r="B2" s="9">
         <f>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[$ Sold])</f>
-        <v>1917.4699999999998</v>
+        <v>2474.9500000000003</v>
       </c>
       <c r="C2" s="9">
         <f>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[COGS])</f>
-        <v>730.87750556792821</v>
+        <v>921.28285077950932</v>
       </c>
       <c r="D2" s="9">
         <f>Reps[[#This Row],[Amount Sold]]-Reps[[#This Row],[COGS]]</f>
-        <v>1186.5924944320716</v>
+        <v>1553.667149220491</v>
       </c>
       <c r="E2" s="9">
         <f>D2*0</f>
@@ -2027,7 +2033,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9">
         <f>Reps[[#This Row],[COGS]]+F2-G2</f>
-        <v>730.87750556792821</v>
+        <v>921.28285077950932</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2132,15 +2138,15 @@
       </c>
       <c r="B8" s="9">
         <f t="shared" ref="B8:H8" si="0">SUM(B2:B4)</f>
-        <v>1917.4699999999998</v>
+        <v>2474.9500000000003</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>730.87750556792821</v>
+        <v>921.28285077950932</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>1186.5924944320716</v>
+        <v>1553.667149220491</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
@@ -2156,7 +2162,7 @@
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>730.87750556792821</v>
+        <v>921.28285077950932</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2165,7 +2171,7 @@
       </c>
       <c r="B10" s="9">
         <f>B8</f>
-        <v>1917.4699999999998</v>
+        <v>2474.9500000000003</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2174,7 +2180,7 @@
       </c>
       <c r="B11" s="9">
         <f>C8</f>
-        <v>730.87750556792821</v>
+        <v>921.28285077950932</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2183,7 +2189,7 @@
       </c>
       <c r="B12" s="9">
         <f>D8</f>
-        <v>1186.5924944320716</v>
+        <v>1553.667149220491</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2201,7 +2207,7 @@
       </c>
       <c r="B14" s="9">
         <f>B12-B13</f>
-        <v>1186.5924944320716</v>
+        <v>1553.667149220491</v>
       </c>
     </row>
   </sheetData>
@@ -2216,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1120"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2271,10 +2277,10 @@
         <v>131</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
@@ -2434,7 +2440,7 @@
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="28"/>
     </row>
@@ -2480,7 +2486,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -7728,7 +7734,7 @@
         <v>64</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G144" s="1">
         <v>40</v>
@@ -7744,7 +7750,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K144" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -7768,7 +7774,7 @@
         <v>64</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G145" s="1">
         <v>41</v>
@@ -7784,7 +7790,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K145" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -7808,7 +7814,7 @@
         <v>64</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G146" s="1">
         <v>42</v>
@@ -7824,7 +7830,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K146" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -7848,7 +7854,7 @@
         <v>64</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G147" s="1">
         <v>43</v>
@@ -7864,7 +7870,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K147" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -7888,7 +7894,7 @@
         <v>64</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G148" s="1">
         <v>44</v>
@@ -7904,7 +7910,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K148" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -12781,8 +12787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13915,7 +13921,7 @@
       </c>
       <c r="C73"/>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G73" t="s">
         <v>141</v>
@@ -13933,10 +13939,10 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -13951,13 +13957,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -13972,10 +13978,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -13990,10 +13996,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -14008,13 +14014,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -14029,10 +14035,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -14047,10 +14053,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -14065,10 +14071,10 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -14083,13 +14089,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -14104,13 +14110,13 @@
         <v>1</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -14129,10 +14135,10 @@
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -14151,10 +14157,10 @@
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -14173,10 +14179,10 @@
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -14191,10 +14197,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -14213,10 +14219,10 @@
       </c>
       <c r="E88" s="14"/>
       <c r="F88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -14235,10 +14241,10 @@
       </c>
       <c r="E89" s="14"/>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -14253,13 +14259,13 @@
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -14274,13 +14280,13 @@
         <v>6</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -14299,10 +14305,10 @@
       </c>
       <c r="E92" s="14"/>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -14321,10 +14327,10 @@
       </c>
       <c r="E93" s="14"/>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -14343,13 +14349,13 @@
       </c>
       <c r="E94" s="14"/>
       <c r="F94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H94" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -14364,13 +14370,13 @@
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -14385,207 +14391,252 @@
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F96" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="7">
+        <v>37</v>
+      </c>
+      <c r="B97" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus white chief m</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="14">
+        <v>43980</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="7">
+        <v>23</v>
+      </c>
+      <c r="B98" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg gray black heart l</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="14">
+        <v>43980</v>
+      </c>
+      <c r="F98" t="s">
+        <v>200</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="7">
+        <v>16</v>
+      </c>
+      <c r="B99" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg white black heart m</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F99" t="s">
+        <v>190</v>
+      </c>
+      <c r="G99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
+        <v>144</v>
+      </c>
+      <c r="B100" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg cream low crazy hearts 41</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>202</v>
+      </c>
+      <c r="G100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="7">
+        <v>87</v>
+      </c>
+      <c r="B101" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black high 40</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
       </c>
-      <c r="G96" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B97" t="e">
+      <c r="G101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="7">
+        <v>124</v>
+      </c>
+      <c r="B102" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C97"/>
-      <c r="F97" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B98" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C98"/>
-      <c r="F98" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B99" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C99"/>
-      <c r="F99" t="s">
-        <v>192</v>
-      </c>
-      <c r="G99" t="s">
+        <v>frank ocean white blonded m</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="14">
+        <v>43980</v>
+      </c>
+      <c r="F102" t="s">
+        <v>172</v>
+      </c>
+      <c r="G102" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B100" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C100"/>
-      <c r="F100" t="s">
-        <v>204</v>
-      </c>
-      <c r="G100" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B101" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C101"/>
-      <c r="F101" t="s">
-        <v>203</v>
-      </c>
-      <c r="G101" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B102" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C102"/>
-      <c r="F102" t="s">
-        <v>174</v>
-      </c>
-      <c r="G102" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B103" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C103"/>
       <c r="F103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B104" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C104"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B105" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C105"/>
       <c r="F105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G105" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B106" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C106"/>
       <c r="F106" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G106" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B107" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C107"/>
       <c r="F107" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G107" t="s">
         <v>177</v>
       </c>
-      <c r="G107" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B108" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C108"/>
       <c r="F108" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G108" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B109" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C109"/>
       <c r="F109" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G109" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B110" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C110"/>
       <c r="F110" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B112" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F112" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.35">
@@ -14594,10 +14645,10 @@
         <v>#N/A</v>
       </c>
       <c r="F113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G113" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.35">
@@ -14618,10 +14669,10 @@
         <v>#N/A</v>
       </c>
       <c r="F116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.35">
@@ -14630,10 +14681,10 @@
         <v>#N/A</v>
       </c>
       <c r="F117" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.35">
@@ -14642,7 +14693,7 @@
         <v>#N/A</v>
       </c>
       <c r="G118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.35">
@@ -14651,10 +14702,10 @@
         <v>#N/A</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.35">
@@ -14663,10 +14714,10 @@
         <v>#N/A</v>
       </c>
       <c r="F120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G120" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.35">
@@ -14697,10 +14748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14737,7 +14788,7 @@
         <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -14763,8 +14814,8 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f>SUM(I2:I995)</f>
-        <v>385</v>
+        <f>SUM(I2:I997)</f>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -15303,7 +15354,7 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="7">
         <v>160</v>
       </c>
       <c r="F25">
@@ -15349,7 +15400,7 @@
       <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="7">
         <v>190</v>
       </c>
       <c r="F27">
@@ -15472,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>112</v>
       </c>
@@ -15495,7 +15546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>15</v>
       </c>
@@ -15518,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>111</v>
       </c>
@@ -15541,7 +15592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>27</v>
       </c>
@@ -15549,7 +15600,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>cdg gray gold heart xl</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>12.579064587973273</v>
       </c>
@@ -15564,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>24</v>
       </c>
@@ -15572,7 +15623,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>cdg gray black heart xl</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>12.579064587973273</v>
       </c>
@@ -15587,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>61</v>
       </c>
@@ -15595,7 +15646,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>assc black cherry m</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>19.180400890868597</v>
       </c>
@@ -15610,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>29</v>
       </c>
@@ -15618,7 +15669,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>cdg gray double heart l</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>14.138084632516703</v>
       </c>
@@ -15633,7 +15684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>53</v>
       </c>
@@ -15641,7 +15692,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>yeezus black grim l</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>13.08685968819599</v>
       </c>
@@ -15656,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -15664,7 +15715,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>yeezus white chief m</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>13.08685968819599</v>
       </c>
@@ -15679,34 +15730,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>40</v>
-      </c>
-      <c r="B42" s="26" t="str">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="26" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus white skull m</v>
-      </c>
-      <c r="C42" s="26">
+        <v>#N/A</v>
+      </c>
+      <c r="C42" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>#N/A</v>
       </c>
       <c r="D42"/>
       <c r="F42" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H42" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42">
-        <v>35</v>
-      </c>
-      <c r="J42" s="14">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -15714,7 +15753,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>cdg black double (red + gold) heart l</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>14.138084632516703</v>
       </c>
@@ -15724,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I43">
         <v>40</v>
@@ -15733,7 +15772,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>35</v>
       </c>
@@ -15741,7 +15780,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>cdg black double (red + gold) heart l</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>14.138084632516703</v>
       </c>
@@ -15756,7 +15795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>47</v>
       </c>
@@ -15764,7 +15803,7 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>yeezus black chief l</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>13.08685968819599</v>
       </c>
@@ -15779,7 +15818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>46</v>
       </c>
@@ -15787,22 +15826,22 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>yeezus black chief m</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>13.08685968819599</v>
       </c>
+      <c r="D46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="7">
+        <v>26.92</v>
+      </c>
       <c r="F46" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>147</v>
-      </c>
-      <c r="I46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>52</v>
       </c>
@@ -15810,155 +15849,590 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>yeezus black grim m</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>13.08685968819599</v>
       </c>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7">
+        <v>26.92</v>
+      </c>
       <c r="F47" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B48" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray double heart xl</v>
-      </c>
-      <c r="C48" s="26">
+        <v>yeezus white chief m</v>
+      </c>
+      <c r="C48" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="E48" s="7">
-        <v>35</v>
+        <v>26.92</v>
       </c>
       <c r="F48" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B49" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg white double heart xl</v>
-      </c>
-      <c r="C49" s="26">
+        <v>yeezus white skull m</v>
+      </c>
+      <c r="C49" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="7">
-        <v>35</v>
+        <v>26.92</v>
       </c>
       <c r="F49" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
-        <v>16</v>
-      </c>
-      <c r="B50" s="26" t="str">
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="35">
+        <v>63</v>
+      </c>
+      <c r="B50" s="36" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg white black heart m</v>
-      </c>
-      <c r="C50" s="26">
+        <v>assc white cs m</v>
+      </c>
+      <c r="C50" s="37">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="7">
-        <v>32.5</v>
-      </c>
-      <c r="F50" s="26">
+      <c r="E50" s="35">
+        <v>46.15</v>
+      </c>
+      <c r="F50" s="36">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B51" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray black heart l</v>
-      </c>
-      <c r="C51" s="26">
+        <v>assc black cs m</v>
+      </c>
+      <c r="C51" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="7">
-        <v>32.5</v>
+      <c r="E51" s="35">
+        <v>46.15</v>
       </c>
       <c r="F51" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B52" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray double heart xl</v>
-      </c>
-      <c r="C52" s="26">
+        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
+      </c>
+      <c r="C52" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>135</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="E52" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F52" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="9"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>30</v>
+      </c>
+      <c r="B53" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg gray double heart xl</v>
+      </c>
+      <c r="C53" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="7">
+        <v>35</v>
+      </c>
+      <c r="F53" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>33</v>
+      </c>
+      <c r="B54" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg white double heart xl</v>
+      </c>
+      <c r="C54" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="7">
+        <v>35</v>
+      </c>
+      <c r="F54" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
+        <v>16</v>
+      </c>
+      <c r="B55" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg white black heart m</v>
+      </c>
+      <c r="C55" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="7">
+        <v>32.5</v>
+      </c>
+      <c r="F55" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <v>23</v>
+      </c>
+      <c r="B56" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg gray black heart l</v>
+      </c>
+      <c r="C56" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="7">
+        <v>32.5</v>
+      </c>
+      <c r="F56" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>85</v>
+      </c>
+      <c r="B57" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg cream high 43</v>
+      </c>
+      <c r="C57" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="E57" s="7">
+        <v>185</v>
+      </c>
+      <c r="F57" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="7">
+        <v>113</v>
+      </c>
+      <c r="B58" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
+      </c>
+      <c r="C58" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>6.4409799554565694</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="7">
+        <v>20</v>
+      </c>
+      <c r="F58" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="7">
+        <v>3</v>
+      </c>
+      <c r="B59" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg navy gold heart xl</v>
+      </c>
+      <c r="C59" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="7">
+        <v>30</v>
+      </c>
+      <c r="F59" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="7">
+        <v>132</v>
+      </c>
+      <c r="B60" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg black double (red + red) heart l</v>
+      </c>
+      <c r="C60" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="7">
+        <v>35</v>
+      </c>
+      <c r="F60" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="7">
+        <v>23</v>
+      </c>
+      <c r="B61" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg gray black heart l</v>
+      </c>
+      <c r="C61" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7">
+        <v>30</v>
+      </c>
+      <c r="F61" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
+        <v>57</v>
+      </c>
+      <c r="B62" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>assc black kkoch m</v>
+      </c>
+      <c r="C62" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="7">
+        <v>55</v>
+      </c>
+      <c r="F62" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>assc black cherry m</v>
+      </c>
+      <c r="C63" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="7">
+        <v>57.5</v>
+      </c>
+      <c r="F63" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
+        <v>30</v>
+      </c>
+      <c r="B64" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg gray double heart xl</v>
+      </c>
+      <c r="C64" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="F64" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>216</v>
+      </c>
+      <c r="I64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
+        <v>15</v>
+      </c>
+      <c r="B65" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg black gold heart xl</v>
+      </c>
+      <c r="C65" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="F65" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>216</v>
+      </c>
+      <c r="I65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
+        <v>20</v>
+      </c>
+      <c r="B66" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg black black heart l</v>
+      </c>
+      <c r="C66" s="26">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="7">
+        <v>35</v>
+      </c>
+      <c r="F66" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <v>132</v>
+      </c>
+      <c r="B67" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg black double (red + red) heart l</v>
+      </c>
+      <c r="C67" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="7">
+        <v>35</v>
+      </c>
+      <c r="F67" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
+        <v>30</v>
+      </c>
+      <c r="B68" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg gray double heart xl</v>
+      </c>
+      <c r="C68" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="F68" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>217</v>
+      </c>
+      <c r="I68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="7">
+        <v>124</v>
+      </c>
+      <c r="B69" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>frank ocean white blonded m</v>
+      </c>
+      <c r="C69" s="26">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>20.623608017817372</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="7">
+        <v>100</v>
+      </c>
+      <c r="F69" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15967,8 +16441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R1116"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="A119" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16094,7 +16568,7 @@
       </c>
       <c r="R2">
         <f>SUM(Q2:Q140)</f>
-        <v>6369.5144766147023</v>
+        <v>6231.5367483296222</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16170,11 +16644,11 @@
       </c>
       <c r="D4">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -16210,7 +16684,7 @@
       </c>
       <c r="Q4">
         <f>I4*Table6[[#This Row],[Stock]]</f>
-        <v>37.737193763919819</v>
+        <v>25.158129175946545</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -16920,7 +17394,7 @@
       </c>
       <c r="C17">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
@@ -16928,7 +17402,7 @@
       </c>
       <c r="E17">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -16964,7 +17438,7 @@
       </c>
       <c r="Q17">
         <f>I17*Table6[[#This Row],[Stock]]</f>
-        <v>0</v>
+        <v>12.579064587973273</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17156,11 +17630,11 @@
       </c>
       <c r="D21">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F21</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -17196,7 +17670,7 @@
       </c>
       <c r="Q21">
         <f>I21*Table6[[#This Row],[Stock]]</f>
-        <v>50.31625835189309</v>
+        <v>37.737193763919819</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17326,11 +17800,11 @@
       </c>
       <c r="C24">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F24</f>
@@ -17736,11 +18210,11 @@
       </c>
       <c r="D31">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F31</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -17772,11 +18246,11 @@
       </c>
       <c r="N31" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L31,M31*I31,0)</f>
-        <v>42.414253897550111</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <f>I31*Table6[[#This Row],[Stock]]</f>
-        <v>14.138084632516703</v>
+        <v>28.276169265033406</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -18200,11 +18674,11 @@
       </c>
       <c r="D39">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F39</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -18236,11 +18710,11 @@
       </c>
       <c r="N39" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L39,M39*I39,0)</f>
-        <v>0</v>
+        <v>42.414253897550111</v>
       </c>
       <c r="Q39">
         <f>I39*Table6[[#This Row],[Stock]]</f>
-        <v>42.414253897550111</v>
+        <v>14.138084632516703</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -18312,11 +18786,11 @@
       </c>
       <c r="C41">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F41</f>
@@ -18490,11 +18964,11 @@
       </c>
       <c r="D44">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F44</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -18530,7 +19004,7 @@
       </c>
       <c r="Q44">
         <f>I44*Table6[[#This Row],[Stock]]</f>
-        <v>52.347438752783958</v>
+        <v>39.260579064587972</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -18838,11 +19312,11 @@
       </c>
       <c r="D50">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F50</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -18878,7 +19352,7 @@
       </c>
       <c r="Q50">
         <f>I50*Table6[[#This Row],[Stock]]</f>
-        <v>52.347438752783958</v>
+        <v>39.260579064587972</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -19186,11 +19660,11 @@
       </c>
       <c r="D56">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F56</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -19226,7 +19700,7 @@
       </c>
       <c r="Q56">
         <f>I56*Table6[[#This Row],[Stock]]</f>
-        <v>65.434298440979944</v>
+        <v>52.347438752783958</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -19476,11 +19950,11 @@
       </c>
       <c r="D61">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F61</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -19516,7 +19990,7 @@
       </c>
       <c r="Q61">
         <f>I61*Table6[[#This Row],[Stock]]</f>
-        <v>57.541202672605792</v>
+        <v>38.360801781737194</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -19708,11 +20182,11 @@
       </c>
       <c r="D65">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F65</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -19748,7 +20222,7 @@
       </c>
       <c r="Q65">
         <f>I65*Table6[[#This Row],[Stock]]</f>
-        <v>19.180400890868597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -19824,11 +20298,11 @@
       </c>
       <c r="D67">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F67</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -19864,7 +20338,7 @@
       </c>
       <c r="Q67">
         <f>I67*Table6[[#This Row],[Stock]]</f>
-        <v>41.514476614699333</v>
+        <v>31.1358574610245</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -19940,11 +20414,11 @@
       </c>
       <c r="D69">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F69</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -19980,7 +20454,7 @@
       </c>
       <c r="Q69">
         <f>I69*Table6[[#This Row],[Stock]]</f>
-        <v>31.1358574610245</v>
+        <v>20.757238307349667</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21100,11 +21574,11 @@
       </c>
       <c r="D89">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F89</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>4</v>
@@ -21140,7 +21614,7 @@
       </c>
       <c r="Q89">
         <f>I89*Table6[[#This Row],[Stock]]</f>
-        <v>71.269487750556792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -21212,7 +21686,7 @@
       </c>
       <c r="C91">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
@@ -21220,7 +21694,7 @@
       </c>
       <c r="E91">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F91</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -21256,7 +21730,7 @@
       </c>
       <c r="Q91">
         <f>I91*Table6[[#This Row],[Stock]]</f>
-        <v>0</v>
+        <v>71.269487750556792</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -22724,11 +23198,11 @@
       </c>
       <c r="D117">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F117</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117">
         <v>5</v>
@@ -22764,7 +23238,7 @@
       </c>
       <c r="Q117">
         <f>I117*Table6[[#This Row],[Stock]]</f>
-        <v>25.763919821826278</v>
+        <v>12.881959910913139</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -23358,11 +23832,11 @@
       </c>
       <c r="C128">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F128</f>
@@ -24125,9 +24599,15 @@
       <c r="F141">
         <v>0</v>
       </c>
+      <c r="G141" s="4">
+        <v>35</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0.09</v>
+      </c>
       <c r="I141" s="11">
         <f>G141/'Item List'!$L$2 + H141*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>9.5590200445434288</v>
       </c>
       <c r="J141" s="7">
         <v>0</v>
@@ -24140,9 +24620,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M141" s="7" t="e">
+      <c r="M141" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N141" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L141,M141*I141,0)</f>
@@ -24150,7 +24630,7 @@
       </c>
       <c r="Q141">
         <f>I141*Table6[[#This Row],[Stock]]</f>
-        <v>0</v>
+        <v>9.5590200445434288</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24177,9 +24657,15 @@
       <c r="F142">
         <v>0</v>
       </c>
+      <c r="G142" s="4">
+        <v>25</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0.17</v>
+      </c>
       <c r="I142" s="11">
         <f>G142/'Item List'!$L$2 + H142*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>8.8997772828507795</v>
       </c>
       <c r="J142" s="7">
         <v>0</v>
@@ -24192,9 +24678,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M142" s="7" t="e">
+      <c r="M142" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N142" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L142,M142*I142,0)</f>
@@ -24202,7 +24688,7 @@
       </c>
       <c r="Q142">
         <f>I142*Table6[[#This Row],[Stock]]</f>
-        <v>0</v>
+        <v>71.198218262806236</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24229,9 +24715,15 @@
       <c r="F143">
         <v>0</v>
       </c>
+      <c r="G143" s="4">
+        <v>25</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.17</v>
+      </c>
       <c r="I143" s="11">
         <f>G143/'Item List'!$L$2 + H143*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>8.8997772828507795</v>
       </c>
       <c r="J143" s="7">
         <v>0</v>
@@ -24244,9 +24736,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M143" s="7" t="e">
+      <c r="M143" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N143" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L143,M143*I143,0)</f>
@@ -24254,7 +24746,7 @@
       </c>
       <c r="Q143">
         <f>I143*Table6[[#This Row],[Stock]]</f>
-        <v>0</v>
+        <v>26.69933184855234</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24274,19 +24766,25 @@
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="7">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F144</f>
         <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
+      </c>
+      <c r="G144" s="4">
+        <v>200</v>
+      </c>
+      <c r="H144" s="7">
+        <v>1.2</v>
       </c>
       <c r="I144" s="11">
         <f>G144/'Item List'!$L$2 + H144*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="J144" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
         <f>'WH LT Total'!E144+'Parcel LT'!$F$2</f>
@@ -24294,15 +24792,15 @@
       </c>
       <c r="L144" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M144" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="M144" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N144" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="N144" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L144,M144*I144,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q144">
         <f>I144*Table6[[#This Row],[Stock]]</f>
@@ -24320,25 +24818,31 @@
       </c>
       <c r="C145">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="7">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F145</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>200</v>
+      </c>
+      <c r="H145" s="7">
+        <v>1.2</v>
       </c>
       <c r="I145" s="11">
         <f>G145/'Item List'!$L$2 + H145*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="J145" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <f>'WH LT Total'!E145+'Parcel LT'!$F$2</f>
@@ -24346,19 +24850,19 @@
       </c>
       <c r="L145" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M145" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="M145" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N145" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="N145" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L145,M145*I145,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q145">
         <f>I145*Table6[[#This Row],[Stock]]</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -24378,19 +24882,25 @@
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="7">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F146</f>
         <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>200</v>
+      </c>
+      <c r="H146" s="7">
+        <v>1.2</v>
       </c>
       <c r="I146" s="11">
         <f>G146/'Item List'!$L$2 + H146*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="J146" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146">
         <f>'WH LT Total'!E146+'Parcel LT'!$F$2</f>
@@ -24398,15 +24908,15 @@
       </c>
       <c r="L146" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M146" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="M146" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N146" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="N146" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L146,M146*I146,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q146">
         <f>I146*Table6[[#This Row],[Stock]]</f>
@@ -24430,19 +24940,25 @@
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="7">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F147</f>
         <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>200</v>
+      </c>
+      <c r="H147" s="7">
+        <v>1.2</v>
       </c>
       <c r="I147" s="11">
         <f>G147/'Item List'!$L$2 + H147*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="J147" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <f>'WH LT Total'!E147+'Parcel LT'!$F$2</f>
@@ -24450,15 +24966,15 @@
       </c>
       <c r="L147" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M147" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="M147" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N147" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="N147" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L147,M147*I147,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q147">
         <f>I147*Table6[[#This Row],[Stock]]</f>
@@ -24482,19 +24998,25 @@
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
         <v>0</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="7">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F148</f>
         <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>200</v>
+      </c>
+      <c r="H148" s="7">
+        <v>1.2</v>
       </c>
       <c r="I148" s="11">
         <f>G148/'Item List'!$L$2 + H148*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="J148" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <f>'WH LT Total'!E148+'Parcel LT'!$F$2</f>
@@ -24502,15 +25024,15 @@
       </c>
       <c r="L148" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M148" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="M148" s="7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N148" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="N148" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L148,M148*I148,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q148">
         <f>I148*Table6[[#This Row],[Stock]]</f>
@@ -24546,7 +25068,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <f>'WH LT Total'!E149+'Parcel LT'!$F$2</f>
@@ -24554,7 +25076,7 @@
       </c>
       <c r="L149" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24598,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <f>'WH LT Total'!E150+'Parcel LT'!$F$2</f>
@@ -24606,7 +25128,7 @@
       </c>
       <c r="L150" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24650,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <f>'WH LT Total'!E151+'Parcel LT'!$F$2</f>
@@ -24658,7 +25180,7 @@
       </c>
       <c r="L151" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M151" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24702,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <f>'WH LT Total'!E152+'Parcel LT'!$F$2</f>
@@ -24710,7 +25232,7 @@
       </c>
       <c r="L152" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M152" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24754,7 +25276,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <f>'WH LT Total'!E153+'Parcel LT'!$F$2</f>
@@ -24762,7 +25284,7 @@
       </c>
       <c r="L153" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M153" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24806,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
         <f>'WH LT Total'!E154+'Parcel LT'!$F$2</f>
@@ -24814,7 +25336,7 @@
       </c>
       <c r="L154" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M154" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24858,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <f>'WH LT Total'!E155+'Parcel LT'!$F$2</f>
@@ -24866,7 +25388,7 @@
       </c>
       <c r="L155" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M155" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24910,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <f>'WH LT Total'!E156+'Parcel LT'!$F$2</f>
@@ -24918,7 +25440,7 @@
       </c>
       <c r="L156" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156" s="7" t="e">
         <f t="shared" si="5"/>
@@ -24962,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157">
         <f>'WH LT Total'!E157+'Parcel LT'!$F$2</f>
@@ -24970,7 +25492,7 @@
       </c>
       <c r="L157" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M157" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25014,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <f>'WH LT Total'!E158+'Parcel LT'!$F$2</f>
@@ -25022,7 +25544,7 @@
       </c>
       <c r="L158" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M158" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25066,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <f>'WH LT Total'!E159+'Parcel LT'!$F$2</f>
@@ -25074,7 +25596,7 @@
       </c>
       <c r="L159" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25118,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160">
         <f>'WH LT Total'!E160+'Parcel LT'!$F$2</f>
@@ -25126,7 +25648,7 @@
       </c>
       <c r="L160" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25170,7 +25692,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <f>'WH LT Total'!E161+'Parcel LT'!$F$2</f>
@@ -25178,7 +25700,7 @@
       </c>
       <c r="L161" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M161" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25222,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <f>'WH LT Total'!E162+'Parcel LT'!$F$2</f>
@@ -25230,7 +25752,7 @@
       </c>
       <c r="L162" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M162" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25274,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <f>'WH LT Total'!E163+'Parcel LT'!$F$2</f>
@@ -25282,7 +25804,7 @@
       </c>
       <c r="L163" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25326,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164">
         <f>'WH LT Total'!E164+'Parcel LT'!$F$2</f>
@@ -25334,7 +25856,7 @@
       </c>
       <c r="L164" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M164" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25378,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165">
         <f>'WH LT Total'!E165+'Parcel LT'!$F$2</f>
@@ -25386,7 +25908,7 @@
       </c>
       <c r="L165" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M165" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25430,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166">
         <f>'WH LT Total'!E166+'Parcel LT'!$F$2</f>
@@ -25438,7 +25960,7 @@
       </c>
       <c r="L166" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M166" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25482,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167">
         <f>'WH LT Total'!E167+'Parcel LT'!$F$2</f>
@@ -25490,7 +26012,7 @@
       </c>
       <c r="L167" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M167" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25534,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <f>'WH LT Total'!E168+'Parcel LT'!$F$2</f>
@@ -25542,7 +26064,7 @@
       </c>
       <c r="L168" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M168" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25586,7 +26108,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <f>'WH LT Total'!E169+'Parcel LT'!$F$2</f>
@@ -25594,7 +26116,7 @@
       </c>
       <c r="L169" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M169" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25638,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <f>'WH LT Total'!E170+'Parcel LT'!$F$2</f>
@@ -25646,7 +26168,7 @@
       </c>
       <c r="L170" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25690,7 +26212,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171">
         <f>'WH LT Total'!E171+'Parcel LT'!$F$2</f>
@@ -25698,7 +26220,7 @@
       </c>
       <c r="L171" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M171" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25742,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172">
         <f>'WH LT Total'!E172+'Parcel LT'!$F$2</f>
@@ -25750,7 +26272,7 @@
       </c>
       <c r="L172" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M172" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25794,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173">
         <f>'WH LT Total'!E173+'Parcel LT'!$F$2</f>
@@ -25802,7 +26324,7 @@
       </c>
       <c r="L173" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M173" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25846,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <f>'WH LT Total'!E174+'Parcel LT'!$F$2</f>
@@ -25854,7 +26376,7 @@
       </c>
       <c r="L174" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M174" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25898,7 +26420,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175">
         <f>'WH LT Total'!E175+'Parcel LT'!$F$2</f>
@@ -25906,7 +26428,7 @@
       </c>
       <c r="L175" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M175" s="7" t="e">
         <f t="shared" si="5"/>
@@ -25950,7 +26472,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176">
         <f>'WH LT Total'!E176+'Parcel LT'!$F$2</f>
@@ -25958,7 +26480,7 @@
       </c>
       <c r="L176" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M176" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26002,7 +26524,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177">
         <f>'WH LT Total'!E177+'Parcel LT'!$F$2</f>
@@ -26010,7 +26532,7 @@
       </c>
       <c r="L177" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M177" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26054,7 +26576,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
         <f>'WH LT Total'!E178+'Parcel LT'!$F$2</f>
@@ -26062,7 +26584,7 @@
       </c>
       <c r="L178" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M178" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26106,7 +26628,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <f>'WH LT Total'!E179+'Parcel LT'!$F$2</f>
@@ -26114,7 +26636,7 @@
       </c>
       <c r="L179" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M179" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26158,7 +26680,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <f>'WH LT Total'!E180+'Parcel LT'!$F$2</f>
@@ -26166,7 +26688,7 @@
       </c>
       <c r="L180" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M180" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26210,7 +26732,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <f>'WH LT Total'!E181+'Parcel LT'!$F$2</f>
@@ -26218,7 +26740,7 @@
       </c>
       <c r="L181" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M181" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26262,7 +26784,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <f>'WH LT Total'!E182+'Parcel LT'!$F$2</f>
@@ -26270,7 +26792,7 @@
       </c>
       <c r="L182" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26314,7 +26836,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183">
         <f>'WH LT Total'!E183+'Parcel LT'!$F$2</f>
@@ -26322,7 +26844,7 @@
       </c>
       <c r="L183" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M183" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26366,7 +26888,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184">
         <f>'WH LT Total'!E184+'Parcel LT'!$F$2</f>
@@ -26374,7 +26896,7 @@
       </c>
       <c r="L184" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M184" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26418,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185">
         <f>'WH LT Total'!E185+'Parcel LT'!$F$2</f>
@@ -26426,7 +26948,7 @@
       </c>
       <c r="L185" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M185" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26470,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186">
         <f>'WH LT Total'!E186+'Parcel LT'!$F$2</f>
@@ -26478,7 +27000,7 @@
       </c>
       <c r="L186" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M186" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26522,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
         <f>'WH LT Total'!E187+'Parcel LT'!$F$2</f>
@@ -26530,7 +27052,7 @@
       </c>
       <c r="L187" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M187" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26574,7 +27096,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188">
         <f>'WH LT Total'!E188+'Parcel LT'!$F$2</f>
@@ -26582,7 +27104,7 @@
       </c>
       <c r="L188" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M188" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26626,7 +27148,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <f>'WH LT Total'!E189+'Parcel LT'!$F$2</f>
@@ -26634,7 +27156,7 @@
       </c>
       <c r="L189" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M189" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26678,7 +27200,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190">
         <f>'WH LT Total'!E190+'Parcel LT'!$F$2</f>
@@ -26686,7 +27208,7 @@
       </c>
       <c r="L190" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26730,7 +27252,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191">
         <f>'WH LT Total'!E191+'Parcel LT'!$F$2</f>
@@ -26738,7 +27260,7 @@
       </c>
       <c r="L191" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26782,7 +27304,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <f>'WH LT Total'!E192+'Parcel LT'!$F$2</f>
@@ -26790,7 +27312,7 @@
       </c>
       <c r="L192" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M192" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26834,7 +27356,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <f>'WH LT Total'!E193+'Parcel LT'!$F$2</f>
@@ -26842,7 +27364,7 @@
       </c>
       <c r="L193" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26886,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <f>'WH LT Total'!E194+'Parcel LT'!$F$2</f>
@@ -26894,7 +27416,7 @@
       </c>
       <c r="L194" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194" s="7" t="e">
         <f t="shared" si="5"/>
@@ -26938,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195">
         <f>'WH LT Total'!E195+'Parcel LT'!$F$2</f>
@@ -26946,7 +27468,7 @@
       </c>
       <c r="L195" s="7">
         <f t="shared" ref="L195:L202" si="6">ROUNDUP((J195/30 * K195),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195" s="7" t="e">
         <f t="shared" ref="M195:M202" si="7">ROUNDUP(SQRT((J195*2*(42*H195))/(0.05*G195)),0)</f>
@@ -26990,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196">
         <f>'WH LT Total'!E196+'Parcel LT'!$F$2</f>
@@ -26998,7 +27520,7 @@
       </c>
       <c r="L196" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196" s="7" t="e">
         <f t="shared" si="7"/>
@@ -27042,7 +27564,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <f>'WH LT Total'!E197+'Parcel LT'!$F$2</f>
@@ -27050,7 +27572,7 @@
       </c>
       <c r="L197" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197" s="7" t="e">
         <f t="shared" si="7"/>
@@ -27094,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198">
         <f>'WH LT Total'!E198+'Parcel LT'!$F$2</f>
@@ -27102,7 +27624,7 @@
       </c>
       <c r="L198" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198" s="7" t="e">
         <f t="shared" si="7"/>
@@ -27146,7 +27668,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199">
         <f>'WH LT Total'!E199+'Parcel LT'!$F$2</f>
@@ -27154,7 +27676,7 @@
       </c>
       <c r="L199" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199" s="7" t="e">
         <f t="shared" si="7"/>
@@ -27198,7 +27720,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <f>'WH LT Total'!E200+'Parcel LT'!$F$2</f>
@@ -27206,7 +27728,7 @@
       </c>
       <c r="L200" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200" s="7" t="e">
         <f t="shared" si="7"/>
@@ -27250,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201">
         <f>'WH LT Total'!E201+'Parcel LT'!$F$2</f>
@@ -27258,7 +27780,7 @@
       </c>
       <c r="L201" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M201" s="7" t="e">
         <f t="shared" si="7"/>
@@ -27302,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202">
         <f>'WH LT Total'!E202+'Parcel LT'!$F$2</f>
@@ -27310,7 +27832,7 @@
       </c>
       <c r="L202" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202" s="7" t="e">
         <f t="shared" si="7"/>
@@ -32858,7 +33380,7 @@
       <formula>L2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140:E143">
+  <conditionalFormatting sqref="E140:E148">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
@@ -32878,7 +33400,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140:E143">
+  <conditionalFormatting sqref="E140:E148">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>L140</formula>
     </cfRule>

--- a/Inventory2020_05.xlsx
+++ b/Inventory2020_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096FEB7-E1D1-4271-88FA-A5A1185CB108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77462E51-7CFB-4FA6-A8BB-5A0A5C3B577B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="211">
   <si>
     <t>Sales Rep</t>
   </si>
@@ -424,9 +424,6 @@
     <t>cardholder</t>
   </si>
   <si>
-    <t>carson</t>
-  </si>
-  <si>
     <t>Wegobuy</t>
   </si>
   <si>
@@ -457,22 +454,10 @@
     <t>https://item.taobao.com/item.htm?id=543020978173&amp;spm=1101.1101.N.N.b73733</t>
   </si>
   <si>
-    <t>tina</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>$$</t>
-  </si>
-  <si>
     <t>Hassan</t>
-  </si>
-  <si>
-    <t>Sherwin</t>
-  </si>
-  <si>
-    <t>Total pending</t>
   </si>
   <si>
     <t>low crazy hearts</t>
@@ -683,15 +668,6 @@
   </si>
   <si>
     <t>white black heart xl</t>
-  </si>
-  <si>
-    <t>tyler</t>
-  </si>
-  <si>
-    <t>Joshie</t>
-  </si>
-  <si>
-    <t>diff seller</t>
   </si>
 </sst>
 </file>
@@ -971,6 +947,30 @@
   </cellStyles>
   <dxfs count="49">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1209,30 +1209,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1615,7 +1591,7 @@
   <autoFilter ref="A1:D123" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="35">
       <calculatedColumnFormula>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Quantity"/>
@@ -1626,19 +1602,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Sold" displayName="Sold" ref="A1:F69" totalsRowShown="0">
-  <autoFilter ref="A1:F69" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Sold" displayName="Sold" ref="A1:F70" totalsRowShown="0">
+  <autoFilter ref="A1:F70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="COGS" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="COGS" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Sales Rep"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="$ Sold"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Quantity" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Quantity" dataDxfId="32">
       <calculatedColumnFormula>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1650,19 +1626,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:E202" totalsRowShown="0">
   <autoFilter ref="A1:E202" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Item No." dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Item No." dataDxfId="7">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Ordered Qty" dataDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Ordered Qty" dataDxfId="6">
       <calculatedColumnFormula>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Sold Qty" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Sold Qty" dataDxfId="5">
       <calculatedColumnFormula>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Stock" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Stock" dataDxfId="4">
       <calculatedColumnFormula>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1675,7 +1651,7 @@
   <autoFilter ref="A1:C240" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="31">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(LeadtimeData[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Leadtime"/>
@@ -1688,13 +1664,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table5" displayName="Table5" ref="A1:C162" totalsRowShown="0">
   <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Item No." dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Item No." dataDxfId="2">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Name" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Name" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Current Avg LT" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Current Avg LT" dataDxfId="0">
       <calculatedColumnFormula>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D2)/IF(COUNT(D2) = 1, 2, 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1967,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2012,15 +1988,15 @@
       </c>
       <c r="B2" s="9">
         <f>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[$ Sold])</f>
-        <v>2474.9500000000003</v>
+        <v>2744.9500000000003</v>
       </c>
       <c r="C2" s="9">
         <f>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[COGS])</f>
-        <v>921.28285077950932</v>
+        <v>1025.7104677060127</v>
       </c>
       <c r="D2" s="9">
         <f>Reps[[#This Row],[Amount Sold]]-Reps[[#This Row],[COGS]]</f>
-        <v>1553.667149220491</v>
+        <v>1719.2395322939876</v>
       </c>
       <c r="E2" s="9">
         <f>D2*0</f>
@@ -2033,7 +2009,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9">
         <f>Reps[[#This Row],[COGS]]+F2-G2</f>
-        <v>921.28285077950932</v>
+        <v>1025.7104677060127</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2138,15 +2114,15 @@
       </c>
       <c r="B8" s="9">
         <f t="shared" ref="B8:H8" si="0">SUM(B2:B4)</f>
-        <v>2474.9500000000003</v>
+        <v>2744.9500000000003</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>921.28285077950932</v>
+        <v>1025.7104677060127</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>1553.667149220491</v>
+        <v>1719.2395322939876</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
@@ -2162,7 +2138,7 @@
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>921.28285077950932</v>
+        <v>1025.7104677060127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2171,7 +2147,7 @@
       </c>
       <c r="B10" s="9">
         <f>B8</f>
-        <v>2474.9500000000003</v>
+        <v>2744.9500000000003</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2180,7 +2156,7 @@
       </c>
       <c r="B11" s="9">
         <f>C8</f>
-        <v>921.28285077950932</v>
+        <v>1025.7104677060127</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2189,7 +2165,7 @@
       </c>
       <c r="B12" s="9">
         <f>D8</f>
-        <v>1553.667149220491</v>
+        <v>1719.2395322939876</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2207,7 +2183,7 @@
       </c>
       <c r="B14" s="9">
         <f>B12-B13</f>
-        <v>1553.667149220491</v>
+        <v>1719.2395322939876</v>
       </c>
     </row>
   </sheetData>
@@ -2222,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1120"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2271,16 +2247,16 @@
         <v>26</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="N1" s="28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
@@ -2336,7 +2312,7 @@
         <v>4.99</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="28"/>
     </row>
@@ -2394,7 +2370,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
@@ -2440,7 +2416,7 @@
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="28"/>
     </row>
@@ -2486,7 +2462,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -5562,7 +5538,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K86" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5600,7 +5576,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K87" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5638,7 +5614,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5676,7 +5652,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5714,7 +5690,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K90" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5752,7 +5728,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K91" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5790,7 +5766,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K92" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5828,7 +5804,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K93" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5866,7 +5842,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K94" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5904,7 +5880,7 @@
         <v>71.269487750556792</v>
       </c>
       <c r="K95" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5942,7 +5918,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K96" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5980,7 +5956,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K97" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6018,7 +5994,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K98" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6056,7 +6032,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K99" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6094,7 +6070,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6132,7 +6108,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K101" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6170,7 +6146,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K102" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6208,7 +6184,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K103" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6246,7 +6222,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6284,7 +6260,7 @@
         <v>69.309576837416472</v>
       </c>
       <c r="K105" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7569,7 +7545,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="20" t="str">
-        <f>CONCATENATE(D140, " ", E140, " ", F140, " ", G140)</f>
+        <f t="shared" ref="B140:B145" si="17">CONCATENATE(D140, " ", E140, " ", F140, " ", G140)</f>
         <v xml:space="preserve">goyard brown cardholder </v>
       </c>
       <c r="C140" s="21" t="s">
@@ -7596,7 +7572,7 @@
         <v>9.5590200445434288</v>
       </c>
       <c r="K140" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
@@ -7607,7 +7583,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="20" t="str">
-        <f>CONCATENATE(D141, " ", E141, " ", F141, " ", G141)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">goyard black cardholder </v>
       </c>
       <c r="C141" s="21" t="s">
@@ -7634,7 +7610,7 @@
         <v>9.5590200445434288</v>
       </c>
       <c r="K141" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -7645,18 +7621,18 @@
         <v>141</v>
       </c>
       <c r="B142" s="20" t="str">
-        <f>CONCATENATE(D142, " ", E142, " ", F142, " ", G142)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> gray fog style xl</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D142" s="21"/>
       <c r="E142" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G142" s="21" t="s">
         <v>34</v>
@@ -7672,7 +7648,7 @@
         <v>8.8997772828507795</v>
       </c>
       <c r="K142" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -7683,18 +7659,18 @@
         <v>142</v>
       </c>
       <c r="B143" s="20" t="str">
-        <f>CONCATENATE(D143, " ", E143, " ", F143, " ", G143)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> black fog style xl</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D143" s="21"/>
       <c r="E143" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>34</v>
@@ -7710,7 +7686,7 @@
         <v>8.8997772828507795</v>
       </c>
       <c r="K143" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -7721,7 +7697,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="20" t="str">
-        <f>CONCATENATE(D144, " ", E144, " ", F144, " ", G144)</f>
+        <f t="shared" si="17"/>
         <v>cdg cream low crazy hearts 40</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -7734,7 +7710,7 @@
         <v>64</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G144" s="1">
         <v>40</v>
@@ -7746,11 +7722,11 @@
         <v>1.2</v>
       </c>
       <c r="J144" s="3">
-        <f t="shared" ref="J144" si="17">H144/$L$2 + I144*(88/$L$2)</f>
+        <f t="shared" ref="J144" si="18">H144/$L$2 + I144*(88/$L$2)</f>
         <v>68.062360801781736</v>
       </c>
       <c r="K144" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -7761,7 +7737,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="20" t="str">
-        <f>CONCATENATE(D145, " ", E145, " ", F145, " ", G145)</f>
+        <f t="shared" si="17"/>
         <v>cdg cream low crazy hearts 41</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -7774,7 +7750,7 @@
         <v>64</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G145" s="1">
         <v>41</v>
@@ -7786,11 +7762,11 @@
         <v>1.2</v>
       </c>
       <c r="J145" s="3">
-        <f t="shared" ref="J145" si="18">H145/$L$2 + I145*(88/$L$2)</f>
+        <f t="shared" ref="J145" si="19">H145/$L$2 + I145*(88/$L$2)</f>
         <v>68.062360801781736</v>
       </c>
       <c r="K145" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -7801,7 +7777,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="20" t="str">
-        <f t="shared" ref="B146:B148" si="19">CONCATENATE(D146, " ", E146, " ", F146, " ", G146)</f>
+        <f t="shared" ref="B146:B148" si="20">CONCATENATE(D146, " ", E146, " ", F146, " ", G146)</f>
         <v>cdg cream low crazy hearts 42</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -7814,7 +7790,7 @@
         <v>64</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G146" s="1">
         <v>42</v>
@@ -7826,11 +7802,11 @@
         <v>1.2</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" ref="J146:J148" si="20">H146/$L$2 + I146*(88/$L$2)</f>
+        <f t="shared" ref="J146:J148" si="21">H146/$L$2 + I146*(88/$L$2)</f>
         <v>68.062360801781736</v>
       </c>
       <c r="K146" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -7841,7 +7817,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cdg cream low crazy hearts 43</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -7854,7 +7830,7 @@
         <v>64</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G147" s="1">
         <v>43</v>
@@ -7866,11 +7842,11 @@
         <v>1.2</v>
       </c>
       <c r="J147" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>68.062360801781736</v>
       </c>
       <c r="K147" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -7881,7 +7857,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cdg cream low crazy hearts 44</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -7894,7 +7870,7 @@
         <v>64</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G148" s="1">
         <v>44</v>
@@ -7906,11 +7882,11 @@
         <v>1.2</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>68.062360801781736</v>
       </c>
       <c r="K148" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -12787,8 +12763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13921,10 +13897,10 @@
       </c>
       <c r="C73"/>
       <c r="F73" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -13939,10 +13915,10 @@
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -13957,13 +13933,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -13978,10 +13954,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -13996,10 +13972,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -14014,13 +13990,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -14035,10 +14011,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -14053,10 +14029,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G80" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -14071,10 +14047,10 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G81" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -14089,13 +14065,13 @@
         <v>1</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -14110,13 +14086,13 @@
         <v>1</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F83" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G83" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -14135,10 +14111,10 @@
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -14157,10 +14133,10 @@
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -14179,10 +14155,10 @@
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -14197,10 +14173,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -14219,10 +14195,10 @@
       </c>
       <c r="E88" s="14"/>
       <c r="F88" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -14241,10 +14217,10 @@
       </c>
       <c r="E89" s="14"/>
       <c r="F89" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G89" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -14259,13 +14235,13 @@
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G90" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -14280,13 +14256,13 @@
         <v>6</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -14305,10 +14281,10 @@
       </c>
       <c r="E92" s="14"/>
       <c r="F92" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -14327,10 +14303,10 @@
       </c>
       <c r="E93" s="14"/>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G93" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -14349,13 +14325,13 @@
       </c>
       <c r="E94" s="14"/>
       <c r="F94" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G94" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H94" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -14370,13 +14346,13 @@
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G95" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -14391,13 +14367,13 @@
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F96" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G96" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -14415,10 +14391,10 @@
         <v>43980</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -14436,10 +14412,10 @@
         <v>43980</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -14454,13 +14430,13 @@
         <v>1</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G99" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -14475,10 +14451,10 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G100" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -14493,13 +14469,13 @@
         <v>1</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F101" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G101" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -14517,10 +14493,10 @@
         <v>43980</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G102" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -14530,10 +14506,10 @@
       </c>
       <c r="C103"/>
       <c r="F103" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G103" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -14550,10 +14526,10 @@
       </c>
       <c r="C105"/>
       <c r="F105" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G105" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -14563,10 +14539,10 @@
       </c>
       <c r="C106"/>
       <c r="F106" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G106" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -14576,10 +14552,10 @@
       </c>
       <c r="C107"/>
       <c r="F107" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G107" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -14589,10 +14565,10 @@
       </c>
       <c r="C108"/>
       <c r="F108" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G108" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -14602,10 +14578,10 @@
       </c>
       <c r="C109"/>
       <c r="F109" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G109" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -14615,10 +14591,10 @@
       </c>
       <c r="C110"/>
       <c r="F110" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G110" t="s">
         <v>175</v>
-      </c>
-      <c r="G110" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -14633,10 +14609,10 @@
         <v>#N/A</v>
       </c>
       <c r="F112" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G112" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.35">
@@ -14645,10 +14621,10 @@
         <v>#N/A</v>
       </c>
       <c r="F113" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G113" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.35">
@@ -14669,10 +14645,10 @@
         <v>#N/A</v>
       </c>
       <c r="F116" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G116" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.35">
@@ -14681,10 +14657,10 @@
         <v>#N/A</v>
       </c>
       <c r="F117" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G117" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.35">
@@ -14693,7 +14669,7 @@
         <v>#N/A</v>
       </c>
       <c r="G118" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.35">
@@ -14702,10 +14678,10 @@
         <v>#N/A</v>
       </c>
       <c r="F119" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G119" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.35">
@@ -14714,10 +14690,10 @@
         <v>#N/A</v>
       </c>
       <c r="F120" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G120" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.35">
@@ -14750,8 +14726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14762,7 +14738,7 @@
     <col min="12" max="12" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -14781,17 +14757,8 @@
       <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>132</v>
       </c>
@@ -14813,12 +14780,8 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <f>SUM(I2:I997)</f>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>49</v>
       </c>
@@ -14841,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -14864,7 +14827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>57</v>
       </c>
@@ -14887,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>63</v>
       </c>
@@ -14910,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>23</v>
       </c>
@@ -14933,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>32</v>
       </c>
@@ -14956,7 +14919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>14</v>
       </c>
@@ -14979,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -15001,9 +14964,14 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G10"/>
       <c r="H10"/>
-    </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>23</v>
       </c>
@@ -15025,9 +14993,14 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G11"/>
       <c r="H11"/>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>20</v>
       </c>
@@ -15049,9 +15022,14 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G12"/>
       <c r="H12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>35</v>
       </c>
@@ -15074,7 +15052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>32</v>
       </c>
@@ -15097,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -15120,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>17</v>
       </c>
@@ -15142,9 +15120,14 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G16"/>
       <c r="H16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>17</v>
       </c>
@@ -15167,17 +15150,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg white black heart l</v>
-      </c>
-      <c r="C18" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>#N/A</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="19"/>
@@ -15185,25 +15166,16 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18">
-        <v>35</v>
-      </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>14</v>
-      </c>
-      <c r="B19" t="str">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black gold heart l</v>
-      </c>
-      <c r="C19" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>#N/A</v>
       </c>
       <c r="D19"/>
       <c r="E19" s="18"/>
@@ -15211,25 +15183,16 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19">
-        <v>35</v>
-      </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>129</v>
-      </c>
-      <c r="B20" t="str">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>astroworld black tour m</v>
-      </c>
-      <c r="C20" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>51.358574610244986</v>
+        <v>#N/A</v>
       </c>
       <c r="D20"/>
       <c r="E20" s="19"/>
@@ -15237,17 +15200,8 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20">
-        <v>170</v>
-      </c>
-      <c r="J20" s="14">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>59</v>
       </c>
@@ -15270,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>113</v>
       </c>
@@ -15292,8 +15246,14 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>50</v>
       </c>
@@ -15316,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>51</v>
       </c>
@@ -15339,7 +15299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>85</v>
       </c>
@@ -15362,7 +15322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>139</v>
       </c>
@@ -15385,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>85</v>
       </c>
@@ -15408,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>139</v>
       </c>
@@ -15431,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>85</v>
       </c>
@@ -15454,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>139</v>
       </c>
@@ -15477,7 +15437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>65</v>
       </c>
@@ -15500,7 +15460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>141</v>
       </c>
@@ -15731,46 +15691,42 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="26" t="e">
+      <c r="A42" s="7">
+        <v>32</v>
+      </c>
+      <c r="B42" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg white double heart l</v>
+      </c>
+      <c r="C42" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="7">
+        <v>35</v>
+      </c>
+      <c r="F42" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v>#N/A</v>
       </c>
-      <c r="C42" s="9" t="e">
+      <c r="C43" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>#N/A</v>
-      </c>
-      <c r="D42"/>
-      <c r="F42" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>35</v>
-      </c>
-      <c r="B43" s="26" t="str">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black double (red + gold) heart l</v>
-      </c>
-      <c r="C43" s="9">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
       </c>
       <c r="D43"/>
       <c r="F43" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43">
-        <v>40</v>
-      </c>
-      <c r="J43" s="14">
-        <v>43983</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
@@ -15886,6 +15842,7 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
@@ -15914,6 +15871,7 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
@@ -15942,6 +15900,7 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
@@ -15970,6 +15929,7 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
@@ -15988,6 +15948,9 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>6.4409799554565694</v>
       </c>
+      <c r="D52" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E52" s="7">
         <v>15</v>
       </c>
@@ -15995,6 +15958,7 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
@@ -16014,7 +15978,7 @@
         <v>14.138084632516703</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="7">
         <v>35</v>
@@ -16105,6 +16069,9 @@
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>71.269487750556792</v>
       </c>
+      <c r="D57" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E57" s="7">
         <v>185</v>
       </c>
@@ -16252,52 +16219,34 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="7">
-        <v>30</v>
-      </c>
-      <c r="B64" s="26" t="str">
+      <c r="B64" s="26" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray double heart xl</v>
-      </c>
-      <c r="C64" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>#N/A</v>
       </c>
       <c r="F64" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H64" t="s">
-        <v>216</v>
-      </c>
-      <c r="I64">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="7">
-        <v>15</v>
-      </c>
-      <c r="B65" s="26" t="str">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B65" s="26" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black gold heart xl</v>
-      </c>
-      <c r="C65" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C65" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>#N/A</v>
       </c>
       <c r="F65" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H65" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>20</v>
       </c>
@@ -16319,8 +16268,14 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>132</v>
       </c>
@@ -16343,30 +16298,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <v>30</v>
-      </c>
-      <c r="B68" s="26" t="str">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B68" s="26" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray double heart xl</v>
-      </c>
-      <c r="C68" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C68" s="9" t="e">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>#N/A</v>
       </c>
       <c r="F68" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H68" t="s">
-        <v>217</v>
-      </c>
-      <c r="I68">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>124</v>
       </c>
@@ -16389,37 +16335,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
+        <v>14</v>
+      </c>
+      <c r="B70" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg black gold heart l</v>
+      </c>
+      <c r="C70" s="26">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>12.579064587973273</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="7">
+        <v>35</v>
+      </c>
+      <c r="F70" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C71" s="9"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C77" s="9"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C78" s="9"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C79" s="9"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C80" s="9"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.35">
@@ -16441,8 +16407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R1116"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="C139" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16568,7 +16534,7 @@
       </c>
       <c r="R2">
         <f>SUM(Q2:Q140)</f>
-        <v>6231.5367483296222</v>
+        <v>6204.8195991091325</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -17282,11 +17248,11 @@
       </c>
       <c r="D15">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F15</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -17322,7 +17288,7 @@
       </c>
       <c r="Q15">
         <f>I15*Table6[[#This Row],[Stock]]</f>
-        <v>50.31625835189309</v>
+        <v>37.737193763919819</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -18326,11 +18292,11 @@
       </c>
       <c r="D33">
         <f>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -18366,7 +18332,7 @@
       </c>
       <c r="Q33">
         <f>I33*Table6[[#This Row],[Stock]]</f>
-        <v>42.414253897550111</v>
+        <v>28.276169265033406</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -33328,86 +33294,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E139">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
       <formula>L2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E148">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E148">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>L140</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Inventory2020_05.xlsx
+++ b/Inventory2020_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77462E51-7CFB-4FA6-A8BB-5A0A5C3B577B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8FEB5A-1DC0-49B1-825A-506133379E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="145">
   <si>
     <t>Sales Rep</t>
   </si>
@@ -454,199 +454,10 @@
     <t>https://item.taobao.com/item.htm?id=543020978173&amp;spm=1101.1101.N.N.b73733</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
     <t>low crazy hearts</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.14a12e8d8l0u2F&amp;id=617077831827&amp;_u=u2029u6ka24862</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Renren</t>
-  </si>
-  <si>
-    <t>Brendan</t>
-  </si>
-  <si>
-    <t>yeezus black grim xl</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>Arlo</t>
-  </si>
-  <si>
-    <t>yeezus black chief xl</t>
-  </si>
-  <si>
-    <t>Plug</t>
-  </si>
-  <si>
-    <t>Lyndon</t>
-  </si>
-  <si>
-    <t>Pietro</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>M Double red black tee</t>
-  </si>
-  <si>
-    <t>cdg black red heart L</t>
-  </si>
-  <si>
-    <t>Tobiah</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Themi</t>
-  </si>
-  <si>
-    <t>Kadin</t>
-  </si>
-  <si>
-    <t>Alvin</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Yeezus black chief xl</t>
-  </si>
-  <si>
-    <t>Yeezus white chief xl</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>goyard brown</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Nikhilesh</t>
-  </si>
-  <si>
-    <t>Jeren</t>
-  </si>
-  <si>
-    <t>Chantelle</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Kay</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>Sogand</t>
-  </si>
-  <si>
-    <t>Bhanu</t>
-  </si>
-  <si>
-    <t>Cdg white red heart M</t>
-  </si>
-  <si>
-    <t>Ganita</t>
-  </si>
-  <si>
-    <t>White red heart L</t>
-  </si>
-  <si>
-    <t>White red heart XL</t>
-  </si>
-  <si>
-    <t>shorts gray xl</t>
-  </si>
-  <si>
-    <t>Yeezus black grim M</t>
-  </si>
-  <si>
-    <t>Aj</t>
-  </si>
-  <si>
-    <t>Yeezus chief black L</t>
-  </si>
-  <si>
-    <t>Yeezus white skull M</t>
-  </si>
-  <si>
-    <t>Yeezus chief white L</t>
-  </si>
-  <si>
-    <t>Black red heart xl</t>
-  </si>
-  <si>
-    <t>Yeezus black chief xxl</t>
-  </si>
-  <si>
-    <t>XL black chief yeezus</t>
-  </si>
-  <si>
-    <t>Yeezus black grim XL</t>
-  </si>
-  <si>
-    <t>Yeezus black chief XL</t>
-  </si>
-  <si>
-    <t>Black black xl</t>
-  </si>
-  <si>
-    <t>Black gold xl</t>
-  </si>
-  <si>
-    <t>Yeezus chief black XL</t>
-  </si>
-  <si>
-    <t>Yeezus black chief L</t>
-  </si>
-  <si>
-    <t>Yeezus black all L</t>
-  </si>
-  <si>
-    <t>Yeezus white skull L</t>
-  </si>
-  <si>
-    <t>*****</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Yucheng</t>
@@ -659,15 +470,6 @@
   </si>
   <si>
     <t>Price Shipped (kg)</t>
-  </si>
-  <si>
-    <t>Deng</t>
-  </si>
-  <si>
-    <t>black 2x red heart xl</t>
-  </si>
-  <si>
-    <t>white black heart xl</t>
   </si>
 </sst>
 </file>
@@ -947,30 +749,6 @@
   </cellStyles>
   <dxfs count="49">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1209,6 +987,30 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1587,8 +1389,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Ordered" displayName="Ordered" ref="A1:D123" totalsRowShown="0">
-  <autoFilter ref="A1:D123" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Ordered" displayName="Ordered" ref="A1:D121" totalsRowShown="0">
+  <autoFilter ref="A1:D121" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Item No."/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="35">
@@ -1602,8 +1404,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Sold" displayName="Sold" ref="A1:F70" totalsRowShown="0">
-  <autoFilter ref="A1:F70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Sold" displayName="Sold" ref="A1:F63" totalsRowShown="0">
+  <autoFilter ref="A1:F63" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Item No."/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="34">
@@ -1626,19 +1428,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:E202" totalsRowShown="0">
   <autoFilter ref="A1:E202" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Item No." dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Item No." dataDxfId="31">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Ordered Qty" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Ordered Qty" dataDxfId="30">
       <calculatedColumnFormula>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Sold Qty" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Sold Qty" dataDxfId="29">
       <calculatedColumnFormula>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Stock" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Stock" dataDxfId="28">
       <calculatedColumnFormula>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1651,7 +1453,7 @@
   <autoFilter ref="A1:C240" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(LeadtimeData[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Leadtime"/>
@@ -1664,13 +1466,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table5" displayName="Table5" ref="A1:C162" totalsRowShown="0">
   <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Item No." dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Item No." dataDxfId="26">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Name" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Name" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Current Avg LT" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Current Avg LT" dataDxfId="24">
       <calculatedColumnFormula>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D2)/IF(COUNT(D2) = 1, 2, 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2198,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1120"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q5"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2253,10 +2055,10 @@
         <v>130</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
@@ -2416,7 +2218,7 @@
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="28"/>
     </row>
@@ -2462,7 +2264,7 @@
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -7710,7 +7512,7 @@
         <v>64</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G144" s="1">
         <v>40</v>
@@ -7726,7 +7528,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K144" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -7750,7 +7552,7 @@
         <v>64</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G145" s="1">
         <v>41</v>
@@ -7766,7 +7568,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K145" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -7790,7 +7592,7 @@
         <v>64</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G146" s="1">
         <v>42</v>
@@ -7806,7 +7608,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K146" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -7830,7 +7632,7 @@
         <v>64</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G147" s="1">
         <v>43</v>
@@ -7846,7 +7648,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K147" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -7870,7 +7672,7 @@
         <v>64</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G148" s="1">
         <v>44</v>
@@ -7886,7 +7688,7 @@
         <v>68.062360801781736</v>
       </c>
       <c r="K148" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -12761,10 +12563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13137,6 +12939,9 @@
       <c r="C23">
         <v>4</v>
       </c>
+      <c r="D23" s="14">
+        <v>43980</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
@@ -13245,6 +13050,9 @@
       <c r="C30">
         <v>3</v>
       </c>
+      <c r="D30" s="14">
+        <v>43977</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
@@ -13257,6 +13065,9 @@
       <c r="C31">
         <v>4</v>
       </c>
+      <c r="D31" s="14">
+        <v>43977</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
@@ -13269,24 +13080,36 @@
       <c r="C32">
         <v>4</v>
       </c>
+      <c r="D32" s="14">
+        <v>43977</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B33" t="e">
+      <c r="A33" s="7">
+        <v>2</v>
+      </c>
+      <c r="B33" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C33"/>
+        <v>cdg navy gold heart l</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14">
+        <v>43979</v>
+      </c>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg navy gold heart l</v>
+        <v>cdg navy gold heart xl</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="14">
         <v>43979</v>
@@ -13295,17 +13118,17 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B35" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg navy gold heart xl</v>
+        <v xml:space="preserve"> gray fog style xl</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="14">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -13318,7 +13141,7 @@
         <v xml:space="preserve"> gray fog style xl</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" s="14">
         <v>43978</v>
@@ -13327,14 +13150,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v xml:space="preserve"> gray fog style xl</v>
+        <v xml:space="preserve"> black fog style xl</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" s="14">
         <v>43978</v>
@@ -13343,29 +13166,30 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v xml:space="preserve"> black fog style xl</v>
+        <v>yeezus white chief m</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="14">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <v>37</v>
+        <f>A38+1</f>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white chief m</v>
-      </c>
-      <c r="C39">
+        <v>yeezus white chief l</v>
+      </c>
+      <c r="C39" s="7">
         <v>2</v>
       </c>
       <c r="D39" s="14">
@@ -13375,12 +13199,12 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <f>A39+1</f>
-        <v>38</v>
+        <f t="shared" ref="A40:A52" si="0">A39+1</f>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white chief l</v>
+        <v>yeezus white chief xl</v>
       </c>
       <c r="C40" s="7">
         <v>2</v>
@@ -13392,12 +13216,12 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <f t="shared" ref="A41:A53" si="0">A40+1</f>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white chief xl</v>
+        <v>yeezus white skull m</v>
       </c>
       <c r="C41" s="7">
         <v>2</v>
@@ -13410,11 +13234,11 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white skull m</v>
+        <v>yeezus white skull l</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -13427,11 +13251,11 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white skull l</v>
+        <v>yeezus white skull xl</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
@@ -13444,11 +13268,11 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white skull xl</v>
+        <v>yeezus white grim m</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
@@ -13461,11 +13285,11 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white grim m</v>
+        <v>yeezus white grim l</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
@@ -13478,11 +13302,11 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white grim l</v>
+        <v>yeezus white grim xl</v>
       </c>
       <c r="C46" s="7">
         <v>2</v>
@@ -13495,107 +13319,124 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white grim xl</v>
+        <v>yeezus black chief m</v>
       </c>
       <c r="C47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="14">
         <v>43980</v>
       </c>
-      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black chief m</v>
+        <v>yeezus black chief l</v>
       </c>
       <c r="C48" s="7">
         <v>3</v>
+      </c>
+      <c r="D48" s="14">
+        <v>43980</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black chief l</v>
+        <v>yeezus black chief xl</v>
       </c>
       <c r="C49" s="7">
         <v>3</v>
       </c>
+      <c r="D49" s="14">
+        <v>43980</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B50" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black chief xl</v>
+        <v>yeezus black grim m</v>
       </c>
       <c r="C50" s="7">
         <v>3</v>
       </c>
+      <c r="D50" s="14">
+        <v>43980</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="B51" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim m</v>
+        <v>yeezus black grim l</v>
       </c>
       <c r="C51" s="7">
         <v>3</v>
+      </c>
+      <c r="D51" s="14">
+        <v>43980</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim l</v>
+        <v>yeezus black grim xl</v>
       </c>
       <c r="C52" s="7">
         <v>3</v>
       </c>
+      <c r="D52" s="14">
+        <v>43980</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="A53">
+        <v>139</v>
       </c>
       <c r="B53" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim xl</v>
-      </c>
-      <c r="C53" s="7">
+        <v xml:space="preserve">goyard brown cardholder </v>
+      </c>
+      <c r="C53">
         <v>3</v>
       </c>
+      <c r="D53" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="B54" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v xml:space="preserve">goyard brown cardholder </v>
+        <v>cdg navy gold heart m</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" s="14">
         <v>43979</v>
@@ -13604,11 +13445,11 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B55" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg navy gold heart m</v>
+        <v>cdg white gold heart m</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -13620,11 +13461,11 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B56" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white gold heart m</v>
+        <v>cdg black gold heart m</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -13636,11 +13477,11 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B57" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black gold heart m</v>
+        <v>cdg black black heart m</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -13652,14 +13493,14 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black black heart m</v>
+        <v>cdg black black heart l</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="14">
         <v>43979</v>
@@ -13668,11 +13509,11 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black black heart l</v>
+        <v>cdg black black heart xl</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -13684,14 +13525,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black black heart xl</v>
+        <v>cdg gray black heart m</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="14">
         <v>43979</v>
@@ -13700,14 +13541,14 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray black heart m</v>
+        <v>cdg gray black heart l</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="14">
         <v>43979</v>
@@ -13716,14 +13557,14 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray black heart l</v>
+        <v>cdg gray black heart xl</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="14">
         <v>43979</v>
@@ -13732,11 +13573,11 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray black heart xl</v>
+        <v>cdg gray gold heart m</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -13748,11 +13589,11 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B64" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray gold heart m</v>
+        <v>cdg gray double heart m</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -13764,11 +13605,11 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B65" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray double heart m</v>
+        <v>cdg white double heart m</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -13780,11 +13621,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B66" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white double heart m</v>
+        <v>cdg black double (red + gold) heart m</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -13796,11 +13637,11 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="B67" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black double (red + gold) heart m</v>
+        <v>cdg black double (red + red) heart m</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -13812,11 +13653,11 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B68" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black double (red + red) heart m</v>
+        <v>cdg gray gold heart xl</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -13828,11 +13669,11 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B69" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray gold heart xl</v>
+        <v>cdg black red heart xl</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -13843,12 +13684,12 @@
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>9</v>
+      <c r="A70" s="7">
+        <v>2</v>
       </c>
       <c r="B70" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black red heart xl</v>
+        <v>cdg navy gold heart l</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -13860,11 +13701,11 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg navy gold heart l</v>
+        <v>cdg navy gold heart xl</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -13876,840 +13717,583 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B72" t="str">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg navy gold heart xl</v>
+        <v>yeezus black chief l</v>
       </c>
       <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <v>41</v>
+      </c>
+      <c r="B73" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus white skull l</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
-      <c r="D72" s="14">
-        <v>43979</v>
-      </c>
-      <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B73" t="e">
+      <c r="D73" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7">
+        <v>50</v>
+      </c>
+      <c r="B74" s="26" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus black skull l</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" s="14">
+        <v>43980</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7">
+        <v>53</v>
+      </c>
+      <c r="B75" s="26" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus black grim l</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="14">
+        <v>43980</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7">
+        <v>141</v>
+      </c>
+      <c r="B76" s="26" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v xml:space="preserve"> gray fog style xl</v>
+      </c>
+      <c r="C76" s="7">
+        <v>3</v>
+      </c>
+      <c r="D76" s="14">
+        <v>43980</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="7">
+        <v>54</v>
+      </c>
+      <c r="B77" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus black grim xl</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="7">
+        <v>48</v>
+      </c>
+      <c r="B78" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus black chief xl</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="7">
+        <v>52</v>
+      </c>
+      <c r="B79" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus black grim m</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="7">
+        <v>40</v>
+      </c>
+      <c r="B80" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus white skull m</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="7">
+        <v>38</v>
+      </c>
+      <c r="B81" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus white chief l</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="7">
+        <v>9</v>
+      </c>
+      <c r="B82" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black red heart xl</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
+        <v>131</v>
+      </c>
+      <c r="B83" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black double (red + red) heart m</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
+        <v>8</v>
+      </c>
+      <c r="B84" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black red heart l</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="7">
+        <v>54</v>
+      </c>
+      <c r="B85" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus black grim xl</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="7">
+        <v>21</v>
+      </c>
+      <c r="B86" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black black heart xl</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
+        <v>15</v>
+      </c>
+      <c r="B87" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black gold heart xl</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="7">
+        <v>39</v>
+      </c>
+      <c r="B88" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus white chief xl</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
+        <v>139</v>
+      </c>
+      <c r="B89" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v xml:space="preserve">goyard brown cardholder </v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7">
+        <v>5</v>
+      </c>
+      <c r="B90" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg white red heart l</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="7">
+        <v>6</v>
+      </c>
+      <c r="B91" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg white red heart xl</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7">
+        <v>4</v>
+      </c>
+      <c r="B92" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg white red heart m</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="14">
+        <v>43980</v>
+      </c>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="7">
+        <v>18</v>
+      </c>
+      <c r="B93" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg white black heart xl</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
+        <v>36</v>
+      </c>
+      <c r="B94" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black double (red + gold) heart xl</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7">
+        <v>37</v>
+      </c>
+      <c r="B95" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>yeezus white chief m</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="7">
+        <v>23</v>
+      </c>
+      <c r="B96" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg gray black heart l</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="7">
+        <v>16</v>
+      </c>
+      <c r="B97" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg white black heart m</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="7">
+        <v>144</v>
+      </c>
+      <c r="B98" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg cream low crazy hearts 41</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="7">
+        <v>87</v>
+      </c>
+      <c r="B99" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>cdg black high 40</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
+        <v>124</v>
+      </c>
+      <c r="B100" t="str">
+        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
+        <v>frank ocean white blonded m</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="14">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C73"/>
-      <c r="F73" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
-        <v>47</v>
-      </c>
-      <c r="B74" t="str">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B102" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black chief l</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>199</v>
-      </c>
-      <c r="G74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
-        <v>41</v>
-      </c>
-      <c r="B75" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white skull l</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" t="s">
-        <v>201</v>
-      </c>
-      <c r="G75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
-        <v>50</v>
-      </c>
-      <c r="B76" s="26" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black skull l</v>
-      </c>
-      <c r="C76" s="7">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
-        <v>53</v>
-      </c>
-      <c r="B77" s="26" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim l</v>
-      </c>
-      <c r="C77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
-        <v>141</v>
-      </c>
-      <c r="B78" s="26" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v xml:space="preserve"> gray fog style xl</v>
-      </c>
-      <c r="C78" s="7">
-        <v>3</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
-        <v>54</v>
-      </c>
-      <c r="B79" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim xl</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>185</v>
-      </c>
-      <c r="G79" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
-        <v>48</v>
-      </c>
-      <c r="B80" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black chief xl</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
-        <v>52</v>
-      </c>
-      <c r="B81" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim m</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>185</v>
-      </c>
-      <c r="G81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
-        <v>40</v>
-      </c>
-      <c r="B82" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white skull m</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" t="s">
-        <v>151</v>
-      </c>
-      <c r="G82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
-        <v>38</v>
-      </c>
-      <c r="B83" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white chief l</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
-        <v>9</v>
-      </c>
-      <c r="B84" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black red heart xl</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
-        <v>131</v>
-      </c>
-      <c r="B85" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black double (red + red) heart m</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="7">
-        <v>8</v>
-      </c>
-      <c r="B86" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black red heart l</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
-        <v>54</v>
-      </c>
-      <c r="B87" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus black grim xl</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="7">
-        <v>21</v>
-      </c>
-      <c r="B88" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black black heart xl</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E88" s="14"/>
-      <c r="F88" t="s">
-        <v>188</v>
-      </c>
-      <c r="G88" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="7">
-        <v>15</v>
-      </c>
-      <c r="B89" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black gold heart xl</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E89" s="14"/>
-      <c r="F89" t="s">
-        <v>191</v>
-      </c>
-      <c r="G89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="7">
-        <v>39</v>
-      </c>
-      <c r="B90" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white chief xl</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" t="s">
-        <v>167</v>
-      </c>
-      <c r="G90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="7">
-        <v>139</v>
-      </c>
-      <c r="B91" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v xml:space="preserve">goyard brown cardholder </v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="7">
-        <v>5</v>
-      </c>
-      <c r="B92" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white red heart l</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E92" s="14"/>
-      <c r="F92" t="s">
-        <v>158</v>
-      </c>
-      <c r="G92" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="7">
-        <v>6</v>
-      </c>
-      <c r="B93" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white red heart xl</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" t="s">
-        <v>167</v>
-      </c>
-      <c r="G93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="7">
-        <v>4</v>
-      </c>
-      <c r="B94" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white red heart m</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" s="14">
-        <v>43980</v>
-      </c>
-      <c r="E94" s="14"/>
-      <c r="F94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="7">
-        <v>18</v>
-      </c>
-      <c r="B95" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white black heart xl</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F95" t="s">
-        <v>193</v>
-      </c>
-      <c r="G95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="7">
-        <v>36</v>
-      </c>
-      <c r="B96" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black double (red + gold) heart xl</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F96" t="s">
-        <v>194</v>
-      </c>
-      <c r="G96" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="7">
-        <v>37</v>
-      </c>
-      <c r="B97" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>yeezus white chief m</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" s="14">
-        <v>43980</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="7">
-        <v>23</v>
-      </c>
-      <c r="B98" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg gray black heart l</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" s="14">
-        <v>43980</v>
-      </c>
-      <c r="F98" t="s">
-        <v>195</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="7">
-        <v>16</v>
-      </c>
-      <c r="B99" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg white black heart m</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F99" t="s">
-        <v>185</v>
-      </c>
-      <c r="G99" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="7">
-        <v>144</v>
-      </c>
-      <c r="B100" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg cream low crazy hearts 41</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>197</v>
-      </c>
-      <c r="G100" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="7">
-        <v>87</v>
-      </c>
-      <c r="B101" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>cdg black high 40</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
-      </c>
-      <c r="G101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="7">
-        <v>124</v>
-      </c>
-      <c r="B102" t="str">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>frank ocean white blonded m</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="14">
-        <v>43980</v>
-      </c>
-      <c r="F102" t="s">
-        <v>167</v>
-      </c>
-      <c r="G102" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B103" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C103"/>
-      <c r="F103" t="s">
-        <v>168</v>
-      </c>
-      <c r="G103" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B105" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C105"/>
-      <c r="F105" t="s">
-        <v>170</v>
-      </c>
-      <c r="G105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C106"/>
-      <c r="F106" t="s">
-        <v>170</v>
-      </c>
-      <c r="G106" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C107"/>
-      <c r="F107" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G107" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C108"/>
-      <c r="F108" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G108" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B109" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C109"/>
-      <c r="F109" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G109" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C110"/>
-      <c r="F110" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G110" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F112" t="s">
-        <v>183</v>
-      </c>
-      <c r="G112" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F113" t="s">
-        <v>178</v>
-      </c>
-      <c r="G113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F116" t="s">
-        <v>184</v>
-      </c>
-      <c r="G116" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F117" t="s">
-        <v>181</v>
-      </c>
-      <c r="G117" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G118" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F119" t="s">
-        <v>209</v>
-      </c>
-      <c r="G119" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F120" t="s">
-        <v>210</v>
-      </c>
-      <c r="G120" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B122" t="e">
-        <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B123" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -14724,10 +14308,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15151,125 +14735,143 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18" t="e">
+      <c r="A18" s="7">
+        <v>59</v>
+      </c>
+      <c r="B18" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" s="9" t="e">
+        <v>assc white cherry m</v>
+      </c>
+      <c r="C18" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="19"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="18">
+        <v>60</v>
+      </c>
       <c r="F18">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19" t="e">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>113</v>
+      </c>
+      <c r="B19" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" s="9" t="e">
+        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
+      </c>
+      <c r="C19" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="18"/>
-      <c r="F19">
+        <v>6.4409799554565694</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="19">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20" t="e">
+      <c r="A20" s="7">
+        <v>50</v>
+      </c>
+      <c r="B20" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="9" t="e">
+        <v>yeezus black skull l</v>
+      </c>
+      <c r="C20" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="19"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="18">
+        <v>30</v>
+      </c>
       <c r="F20">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc white cherry m</v>
+        <v>yeezus black skull xl</v>
       </c>
       <c r="C21" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>19.180400890868597</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="18">
-        <v>60</v>
+      <c r="E21" s="19">
+        <v>35</v>
       </c>
       <c r="F21">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>113</v>
-      </c>
-      <c r="B22" s="26" t="str">
+        <v>85</v>
+      </c>
+      <c r="B22" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
+        <v>cdg cream high 43</v>
       </c>
       <c r="C22" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>6.4409799554565694</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>71.269487750556792</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="19">
-        <v>15</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="E22" s="7">
+        <v>160</v>
+      </c>
+      <c r="F22">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus black skull l</v>
+        <v xml:space="preserve">goyard brown cardholder </v>
       </c>
       <c r="C23" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>9.5590200445434288</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15278,21 +14880,21 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus black skull xl</v>
+        <v>cdg cream high 43</v>
       </c>
       <c r="C24" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="19">
-        <v>35</v>
+      <c r="E24" s="7">
+        <v>190</v>
       </c>
       <c r="F24">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15301,21 +14903,21 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>85</v>
-      </c>
-      <c r="B25" t="str">
+        <v>139</v>
+      </c>
+      <c r="B25" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg cream high 43</v>
+        <v xml:space="preserve">goyard brown cardholder </v>
       </c>
       <c r="C25" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>71.269487750556792</v>
-      </c>
-      <c r="D25" t="s">
+        <v>9.5590200445434288</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="7">
-        <v>160</v>
+      <c r="E25" s="18">
+        <v>25</v>
       </c>
       <c r="F25">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15324,90 +14926,90 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
+        <v>85</v>
+      </c>
+      <c r="B26" s="26" t="str">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
+        <v>cdg cream high 43</v>
+      </c>
+      <c r="C26" s="9">
+        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7">
+        <v>170</v>
+      </c>
+      <c r="F26" s="26">
+        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>139</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
         <v xml:space="preserve">goyard brown cardholder </v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>9.5590200445434288</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="18">
-        <v>20</v>
-      </c>
-      <c r="F26">
+      <c r="E27" s="7">
+        <v>25</v>
+      </c>
+      <c r="F27" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>85</v>
-      </c>
-      <c r="B27" t="str">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>65</v>
+      </c>
+      <c r="B28" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg cream high 43</v>
-      </c>
-      <c r="C27" s="9">
+        <v>assc black cs m</v>
+      </c>
+      <c r="C28" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>71.269487750556792</v>
-      </c>
-      <c r="D27" s="7" t="s">
+        <v>10.378619153674833</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7">
-        <v>190</v>
-      </c>
-      <c r="F27">
+      <c r="E28" s="7">
+        <v>55</v>
+      </c>
+      <c r="F28" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>139</v>
-      </c>
-      <c r="B28" s="26" t="str">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">goyard brown cardholder </v>
-      </c>
-      <c r="C28" s="9">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>9.5590200445434288</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="18">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B29" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg cream high 43</v>
+        <v xml:space="preserve"> gray fog style xl</v>
       </c>
       <c r="C29" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>71.269487750556792</v>
+        <v>8.8997772828507795</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="7">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="F29" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15416,21 +15018,21 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B30" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">goyard brown cardholder </v>
+        <v xml:space="preserve">tommy hilfiger navy baseball cap </v>
       </c>
       <c r="C30" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>9.5590200445434288</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F30" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15439,21 +15041,21 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B31" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc black cs m</v>
+        <v>cdg black gold heart xl</v>
       </c>
       <c r="C31" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>10.378619153674833</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F31" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15462,21 +15064,21 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B32" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve"> gray fog style xl</v>
+        <v xml:space="preserve">tommy hilfiger white baseball cap </v>
       </c>
       <c r="C32" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>8.8997772828507795</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F32" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15485,21 +15087,21 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B33" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">tommy hilfiger navy baseball cap </v>
+        <v>cdg gray gold heart xl</v>
       </c>
       <c r="C33" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>6.4409799554565694</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F33" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15508,11 +15110,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B34" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black gold heart xl</v>
+        <v>cdg gray black heart xl</v>
       </c>
       <c r="C34" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
@@ -15522,7 +15124,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F34" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15531,21 +15133,21 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B35" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">tommy hilfiger white baseball cap </v>
+        <v>assc black cherry m</v>
       </c>
       <c r="C35" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>6.4409799554565694</v>
-      </c>
-      <c r="D35" s="7" t="s">
+        <v>19.180400890868597</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="7">
-        <v>20</v>
+      <c r="E35">
+        <v>60</v>
       </c>
       <c r="F35" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15554,21 +15156,21 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray gold heart xl</v>
+        <v>cdg gray double heart l</v>
       </c>
       <c r="C36" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
-      </c>
-      <c r="D36" s="7" t="s">
+        <v>14.138084632516703</v>
+      </c>
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="7">
-        <v>25</v>
+      <c r="E36">
+        <v>35</v>
       </c>
       <c r="F36" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15577,21 +15179,21 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B37" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray black heart xl</v>
+        <v>yeezus black grim l</v>
       </c>
       <c r="C37" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>13.08685968819599</v>
+      </c>
+      <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="7">
-        <v>35</v>
+      <c r="E37">
+        <v>30</v>
       </c>
       <c r="F37" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15600,21 +15202,21 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B38" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc black cherry m</v>
+        <v>yeezus white chief m</v>
       </c>
       <c r="C38" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>19.180400890868597</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F38" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15623,11 +15225,11 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B39" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray double heart l</v>
+        <v>cdg white double heart l</v>
       </c>
       <c r="C39" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
@@ -15636,7 +15238,7 @@
       <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>35</v>
       </c>
       <c r="F39" s="26">
@@ -15646,21 +15248,21 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B40" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus black grim l</v>
+        <v>cdg black double (red + gold) heart l</v>
       </c>
       <c r="C40" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F40" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15669,11 +15271,11 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B41" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus white chief m</v>
+        <v>yeezus black chief l</v>
       </c>
       <c r="C41" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
@@ -15683,7 +15285,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F41" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15692,21 +15294,21 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B42" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg white double heart l</v>
+        <v>yeezus black chief m</v>
       </c>
       <c r="C42" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
-      </c>
-      <c r="D42" t="s">
+        <v>13.08685968819599</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="7">
-        <v>35</v>
+        <v>26.92</v>
       </c>
       <c r="F42" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15714,129 +15316,161 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="26" t="e">
+      <c r="A43" s="7">
+        <v>52</v>
+      </c>
+      <c r="B43" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C43" s="9" t="e">
+        <v>yeezus black grim m</v>
+      </c>
+      <c r="C43" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>26.92</v>
+      </c>
       <c r="F43" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B44" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black double (red + gold) heart l</v>
+        <v>yeezus white chief m</v>
       </c>
       <c r="C44" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
-      </c>
-      <c r="D44" t="s">
+        <v>13.08685968819599</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E44">
-        <v>40</v>
+      <c r="E44" s="7">
+        <v>26.92</v>
       </c>
       <c r="F44" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B45" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus black chief l</v>
+        <v>yeezus white skull m</v>
       </c>
       <c r="C45" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
         <v>13.08685968819599</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E45">
-        <v>35</v>
+      <c r="E45" s="7">
+        <v>26.92</v>
       </c>
       <c r="F45" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>46</v>
-      </c>
-      <c r="B46" s="26" t="str">
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="35">
+        <v>63</v>
+      </c>
+      <c r="B46" s="36" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus black chief m</v>
-      </c>
-      <c r="C46" s="9">
+        <v>assc white cs m</v>
+      </c>
+      <c r="C46" s="37">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="7">
-        <v>26.92</v>
-      </c>
-      <c r="F46" s="26">
+      <c r="E46" s="35">
+        <v>46.15</v>
+      </c>
+      <c r="F46" s="36">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B47" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus black grim m</v>
+        <v>assc black cs m</v>
       </c>
       <c r="C47" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="7">
-        <v>26.92</v>
+      <c r="E47" s="35">
+        <v>46.15</v>
       </c>
       <c r="F47" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
     </row>
     <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B48" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus white chief m</v>
+        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
       </c>
       <c r="C48" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="7">
-        <v>26.92</v>
+        <v>15</v>
       </c>
       <c r="F48" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15849,139 +15483,115 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B49" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>yeezus white skull m</v>
+        <v>cdg gray double heart xl</v>
       </c>
       <c r="C49" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>13.08685968819599</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="E49" s="7">
-        <v>26.92</v>
+        <v>35</v>
       </c>
       <c r="F49" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="35">
-        <v>63</v>
-      </c>
-      <c r="B50" s="36" t="str">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>33</v>
+      </c>
+      <c r="B50" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc white cs m</v>
-      </c>
-      <c r="C50" s="37">
+        <v>cdg white double heart xl</v>
+      </c>
+      <c r="C50" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>10.378619153674833</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="35">
-        <v>46.15</v>
-      </c>
-      <c r="F50" s="36">
+      <c r="E50" s="7">
+        <v>35</v>
+      </c>
+      <c r="F50" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B51" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc black cs m</v>
+        <v>cdg white black heart m</v>
       </c>
       <c r="C51" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>10.378619153674833</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="35">
-        <v>46.15</v>
+      <c r="E51" s="7">
+        <v>32.5</v>
       </c>
       <c r="F51" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B52" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
+        <v>cdg gray black heart l</v>
       </c>
       <c r="C52" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>6.4409799554565694</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="7">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="F52" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B53" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray double heart xl</v>
+        <v>cdg cream high 43</v>
       </c>
       <c r="C53" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="E53" s="7">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="F53" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -15990,21 +15600,21 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B54" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg white double heart xl</v>
+        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
       </c>
       <c r="C54" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F54" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16013,11 +15623,11 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B55" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg white black heart m</v>
+        <v>cdg navy gold heart xl</v>
       </c>
       <c r="C55" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
@@ -16027,7 +15637,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="7">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="F55" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16036,21 +15646,21 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B56" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray black heart l</v>
+        <v>cdg black double (red + red) heart l</v>
       </c>
       <c r="C56" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="7">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="F56" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16059,21 +15669,21 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B57" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg cream high 43</v>
+        <v>cdg gray black heart l</v>
       </c>
       <c r="C57" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>71.269487750556792</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="7">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="F57" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16082,21 +15692,21 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B58" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v xml:space="preserve">tommy hilfiger black baseball cap </v>
+        <v>assc black kkoch m</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>6.4409799554565694</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="7">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F58" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16105,38 +15715,38 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B59" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg navy gold heart xl</v>
+        <v>assc black cherry m</v>
       </c>
       <c r="C59" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="7">
-        <v>30</v>
+        <v>57.5</v>
       </c>
       <c r="F59" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="B60" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black double (red + red) heart l</v>
-      </c>
-      <c r="C60" s="9">
+        <v>cdg black black heart l</v>
+      </c>
+      <c r="C60" s="26">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>8</v>
@@ -16148,24 +15758,30 @@
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B61" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg gray black heart l</v>
+        <v>cdg black double (red + red) heart l</v>
       </c>
       <c r="C61" s="9">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F61" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16174,21 +15790,21 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B62" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc black kkoch m</v>
-      </c>
-      <c r="C62" s="9">
+        <v>frank ocean white blonded m</v>
+      </c>
+      <c r="C62" s="26">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>19.180400890868597</v>
+        <v>20.623608017817372</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="7">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F62" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16197,21 +15813,21 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B63" s="26" t="str">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>assc black cherry m</v>
-      </c>
-      <c r="C63" s="9">
+        <v>cdg black gold heart l</v>
+      </c>
+      <c r="C63" s="26">
         <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>19.180400890868597</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="7">
-        <v>57.5</v>
+        <v>35</v>
       </c>
       <c r="F63" s="26">
         <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
@@ -16219,180 +15835,40 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="26" t="e">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C64" s="9" t="e">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="26" t="e">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C65" s="9" t="e">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F65" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7">
-        <v>20</v>
-      </c>
-      <c r="B66" s="26" t="str">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black black heart l</v>
-      </c>
-      <c r="C66" s="26">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="7">
-        <v>35</v>
-      </c>
-      <c r="F66" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="7">
-        <v>132</v>
-      </c>
-      <c r="B67" s="26" t="str">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black double (red + red) heart l</v>
-      </c>
-      <c r="C67" s="9">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>14.138084632516703</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="7">
-        <v>35</v>
-      </c>
-      <c r="F67" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="26" t="e">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C68" s="9" t="e">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
-        <v>124</v>
-      </c>
-      <c r="B69" s="26" t="str">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>frank ocean white blonded m</v>
-      </c>
-      <c r="C69" s="26">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>20.623608017817372</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="7">
-        <v>100</v>
-      </c>
-      <c r="F69" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
-        <v>14</v>
-      </c>
-      <c r="B70" s="26" t="str">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</f>
-        <v>cdg black gold heart l</v>
-      </c>
-      <c r="C70" s="26">
-        <f>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</f>
-        <v>12.579064587973273</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="7">
-        <v>35</v>
-      </c>
-      <c r="F70" s="26">
-        <f>IF(COUNT(Sold[[#This Row],[$ Sold]]) = 1, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C71" s="9"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C82" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33294,86 +32770,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E139">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
       <formula>L2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E148">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E148">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>L140</formula>
     </cfRule>
   </conditionalFormatting>
